--- a/Semester_3/Datenanalyse/VisualisierungsProjekt/Vorlage Zeitaufzeichnungen.xlsx
+++ b/Semester_3/Datenanalyse/VisualisierungsProjekt/Vorlage Zeitaufzeichnungen.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809FA35A-6FDE-5E4B-AC65-856AE34E3ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{809FA35A-6FDE-5E4B-AC65-856AE34E3ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C97559BE-23C3-45D4-B2C7-BDB94178280E}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="2360" windowWidth="28040" windowHeight="17360" xr2:uid="{35CA40DD-BBF4-AC4D-AAC1-906A7A003C17}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{35CA40DD-BBF4-AC4D-AAC1-906A7A003C17}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
   <si>
     <t>Kalenderwoche</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Tätigkeiten</t>
+  </si>
+  <si>
+    <t>Aufsetzen Projektbericht; Brainstorming; Daten herumspielen</t>
   </si>
 </sst>
 </file>
@@ -121,13 +124,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -135,12 +137,12 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -164,9 +166,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -204,7 +206,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -310,7 +312,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -452,7 +454,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -460,203 +462,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B90C3BE-8A88-7D42-B070-D69C069E9397}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M2"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="7" max="7" width="23.1640625" customWidth="1"/>
+    <col min="7" max="7" width="23.1484375" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
+    <row r="1" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
+      <c r="A1" s="6"/>
       <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-    </row>
-    <row r="2" spans="1:13" ht="26" x14ac:dyDescent="0.3">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="10"/>
+      <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:13" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>9</v>
-      </c>
-      <c r="B4" s="8">
+    <row r="4" spans="1:13" ht="26.05" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A4" s="5">
+        <v>48</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7">
         <v>9.375E-2</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="8">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="8">
+      <c r="I4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="7">
         <v>9.375E-2</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="8">
-        <v>9.375E-2</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>10</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="L4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" ht="26.05" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A5" s="5">
+        <v>49</v>
+      </c>
+      <c r="B5" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="8">
+      <c r="C5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7">
         <v>0</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="8">
+      <c r="F5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="8">
+      <c r="I5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>11</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="L5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" ht="26.05" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A6" s="5">
+        <v>50</v>
+      </c>
+      <c r="B6" s="7">
         <v>0.1875</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="8">
+      <c r="C6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="8">
+      <c r="F6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="8">
+      <c r="I6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="L6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
+      <c r="A7" s="5">
+        <v>51</v>
+      </c>
       <c r="B7" s="1"/>
       <c r="E7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
+      <c r="A8" s="5">
+        <v>52</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="E8" s="1"/>
       <c r="H8" s="1"/>
     </row>
+    <row r="9" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
+      <c r="A10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
+      <c r="A11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
+      <c r="A12" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
+      <c r="A13" s="5">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I4:J4"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="K1:M1"/>
@@ -665,6 +686,18 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Semester_3/Datenanalyse/VisualisierungsProjekt/Vorlage Zeitaufzeichnungen.xlsx
+++ b/Semester_3/Datenanalyse/VisualisierungsProjekt/Vorlage Zeitaufzeichnungen.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{809FA35A-6FDE-5E4B-AC65-856AE34E3ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C97559BE-23C3-45D4-B2C7-BDB94178280E}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{809FA35A-6FDE-5E4B-AC65-856AE34E3ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{952BC2D2-E04B-4615-82C2-455D242FECBC}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{35CA40DD-BBF4-AC4D-AAC1-906A7A003C17}"/>
+    <workbookView minimized="1" xWindow="1800" yWindow="1800" windowWidth="17280" windowHeight="9984" xr2:uid="{35CA40DD-BBF4-AC4D-AAC1-906A7A003C17}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>Kalenderwoche</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Aufsetzen Projektbericht; Brainstorming; Daten herumspielen</t>
+  </si>
+  <si>
+    <t>Datensammeln</t>
   </si>
 </sst>
 </file>
@@ -137,12 +140,12 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -465,7 +468,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -479,26 +482,26 @@
   <sheetData>
     <row r="1" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A1" s="6"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="11" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A2" s="3" t="s">
@@ -543,31 +546,31 @@
       <c r="B4" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="8"/>
+      <c r="F4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="11"/>
       <c r="H4" s="7">
         <v>9.375E-2</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="8"/>
+      <c r="I4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="11"/>
       <c r="K4" s="7">
         <v>9.375E-2</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="8"/>
+      <c r="L4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:13" ht="26.05" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A5" s="5">
@@ -576,31 +579,31 @@
       <c r="B5" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="8"/>
+      <c r="C5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="11"/>
       <c r="E5" s="7">
         <v>0</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="8"/>
+      <c r="F5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="11"/>
       <c r="H5" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="8"/>
+      <c r="I5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="11"/>
       <c r="K5" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="8"/>
+      <c r="L5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" ht="26.05" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A6" s="5">
@@ -609,31 +612,31 @@
       <c r="B6" s="7">
         <v>0.1875</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8"/>
+      <c r="C6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11"/>
       <c r="E6" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="8"/>
+      <c r="F6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="11"/>
       <c r="H6" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="8"/>
+      <c r="I6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="11"/>
       <c r="K6" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="L6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="8"/>
+      <c r="L6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A7" s="5">
@@ -678,6 +681,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="K1:M1"/>
@@ -686,18 +701,6 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Semester_3/Datenanalyse/VisualisierungsProjekt/Vorlage Zeitaufzeichnungen.xlsx
+++ b/Semester_3/Datenanalyse/VisualisierungsProjekt/Vorlage Zeitaufzeichnungen.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{809FA35A-6FDE-5E4B-AC65-856AE34E3ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{952BC2D2-E04B-4615-82C2-455D242FECBC}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{809FA35A-6FDE-5E4B-AC65-856AE34E3ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8067524D-9454-4F97-AAB0-DF2818323E51}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1800" yWindow="1800" windowWidth="17280" windowHeight="9984" xr2:uid="{35CA40DD-BBF4-AC4D-AAC1-906A7A003C17}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{35CA40DD-BBF4-AC4D-AAC1-906A7A003C17}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Kalenderwoche</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>Datensammeln</t>
+  </si>
+  <si>
+    <t>"Prototypen" erarbeiten; Zielgruppe eingrenzen</t>
+  </si>
+  <si>
+    <t>Daten vertiefen und Aufräumen; Zielgruppen vertiefen</t>
   </si>
 </sst>
 </file>
@@ -127,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -140,11 +146,14 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,7 +477,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -482,26 +491,26 @@
   <sheetData>
     <row r="1" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A1" s="6"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="8" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A2" s="3" t="s">
@@ -546,31 +555,31 @@
       <c r="B4" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="11"/>
+      <c r="F4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="8"/>
       <c r="H4" s="7">
         <v>9.375E-2</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="11"/>
+      <c r="I4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="8"/>
       <c r="K4" s="7">
         <v>9.375E-2</v>
       </c>
-      <c r="L4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="11"/>
+      <c r="L4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="26.05" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A5" s="5">
@@ -579,70 +588,76 @@
       <c r="B5" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="7">
         <v>0</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="11"/>
+      <c r="F5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="8"/>
       <c r="H5" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="11"/>
+      <c r="I5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="8"/>
       <c r="K5" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="L5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="11"/>
+      <c r="L5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="26.05" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A6" s="5">
         <v>50</v>
       </c>
       <c r="B6" s="7">
-        <v>0.1875</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="11"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="8"/>
       <c r="E6" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="11"/>
+      <c r="F6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="8"/>
       <c r="H6" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="11"/>
+      <c r="I6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="8"/>
       <c r="K6" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="L6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="11"/>
+      <c r="L6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A7" s="5">
         <v>51</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="7">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="12"/>
       <c r="E7" s="1"/>
       <c r="H7" s="1"/>
     </row>
@@ -680,19 +695,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I4:J4"/>
+  <mergeCells count="21">
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="K1:M1"/>
@@ -701,6 +705,18 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Semester_3/Datenanalyse/VisualisierungsProjekt/Vorlage Zeitaufzeichnungen.xlsx
+++ b/Semester_3/Datenanalyse/VisualisierungsProjekt/Vorlage Zeitaufzeichnungen.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{809FA35A-6FDE-5E4B-AC65-856AE34E3ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8067524D-9454-4F97-AAB0-DF2818323E51}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{809FA35A-6FDE-5E4B-AC65-856AE34E3ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92EF950F-921C-4621-AB5D-AB29C05FDBA7}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{35CA40DD-BBF4-AC4D-AAC1-906A7A003C17}"/>
+    <workbookView xWindow="1098" yWindow="1098" windowWidth="17280" windowHeight="9984" xr2:uid="{35CA40DD-BBF4-AC4D-AAC1-906A7A003C17}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Kalenderwoche</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Daten vertiefen und Aufräumen; Zielgruppen vertiefen</t>
+  </si>
+  <si>
+    <t>Neue Daten Suchen</t>
+  </si>
+  <si>
+    <t>Konzepte vertiefen und neu ausbauen</t>
   </si>
 </sst>
 </file>
@@ -147,13 +153,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,7 +483,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -496,21 +502,21 @@
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A2" s="3" t="s">
@@ -519,31 +525,31 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="10"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="10"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A3" s="4"/>
@@ -555,31 +561,31 @@
       <c r="B4" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="8"/>
+      <c r="F4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="12"/>
       <c r="H4" s="7">
         <v>9.375E-2</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="8"/>
+      <c r="I4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="12"/>
       <c r="K4" s="7">
         <v>9.375E-2</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="8"/>
+      <c r="L4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="26.05" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A5" s="5">
@@ -588,31 +594,31 @@
       <c r="B5" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="7">
         <v>0</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="8"/>
+      <c r="F5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="12"/>
       <c r="H5" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="8"/>
+      <c r="I5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="12"/>
       <c r="K5" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="8"/>
+      <c r="L5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" ht="26.05" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A6" s="5">
@@ -621,31 +627,31 @@
       <c r="B6" s="7">
         <v>6.25E-2</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="8"/>
+      <c r="F6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="12"/>
       <c r="H6" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="8"/>
+      <c r="I6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="12"/>
       <c r="K6" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="L6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="8"/>
+      <c r="L6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A7" s="5">
@@ -654,10 +660,10 @@
       <c r="B7" s="7">
         <v>0.11458333333333333</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="1"/>
       <c r="H7" s="1"/>
     </row>
@@ -665,7 +671,12 @@
       <c r="A8" s="5">
         <v>52</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="H8" s="1"/>
     </row>
@@ -673,6 +684,12 @@
       <c r="A9" s="5">
         <v>1</v>
       </c>
+      <c r="B9" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A10" s="5">
@@ -696,6 +713,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
@@ -712,11 +734,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Semester_3/Datenanalyse/VisualisierungsProjekt/Vorlage Zeitaufzeichnungen.xlsx
+++ b/Semester_3/Datenanalyse/VisualisierungsProjekt/Vorlage Zeitaufzeichnungen.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{809FA35A-6FDE-5E4B-AC65-856AE34E3ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92EF950F-921C-4621-AB5D-AB29C05FDBA7}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{809FA35A-6FDE-5E4B-AC65-856AE34E3ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C9D870B-600B-4D1C-9231-99A13410E816}"/>
   <bookViews>
-    <workbookView xWindow="1098" yWindow="1098" windowWidth="17280" windowHeight="9984" xr2:uid="{35CA40DD-BBF4-AC4D-AAC1-906A7A003C17}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{35CA40DD-BBF4-AC4D-AAC1-906A7A003C17}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Kalenderwoche</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Konzepte vertiefen und neu ausbauen</t>
+  </si>
+  <si>
+    <t>Visualisierungen ausprobieren</t>
   </si>
 </sst>
 </file>
@@ -153,14 +156,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -483,7 +486,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -497,26 +500,26 @@
   <sheetData>
     <row r="1" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A1" s="6"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A2" s="3" t="s">
@@ -525,31 +528,31 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="G2" s="12"/>
       <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="11"/>
+      <c r="J2" s="12"/>
       <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="11"/>
+      <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A3" s="4"/>
@@ -561,31 +564,31 @@
       <c r="B4" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="12"/>
+      <c r="F4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="8"/>
       <c r="H4" s="7">
         <v>9.375E-2</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="12"/>
+      <c r="I4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="8"/>
       <c r="K4" s="7">
         <v>9.375E-2</v>
       </c>
-      <c r="L4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="12"/>
+      <c r="L4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="26.05" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A5" s="5">
@@ -594,31 +597,31 @@
       <c r="B5" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="7">
         <v>0</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="12"/>
+      <c r="F5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="8"/>
       <c r="H5" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="12"/>
+      <c r="I5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="8"/>
       <c r="K5" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="12"/>
+      <c r="L5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="26.05" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A6" s="5">
@@ -627,31 +630,31 @@
       <c r="B6" s="7">
         <v>6.25E-2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="12"/>
+      <c r="F6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="8"/>
       <c r="H6" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="12"/>
+      <c r="I6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="8"/>
       <c r="K6" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="L6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="12"/>
+      <c r="L6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A7" s="5">
@@ -660,10 +663,10 @@
       <c r="B7" s="7">
         <v>0.11458333333333333</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1"/>
       <c r="H7" s="1"/>
     </row>
@@ -695,6 +698,12 @@
       <c r="A10" s="5">
         <v>2</v>
       </c>
+      <c r="B10" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A11" s="5">
@@ -713,11 +722,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
@@ -734,6 +738,11 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Semester_3/Datenanalyse/VisualisierungsProjekt/Vorlage Zeitaufzeichnungen.xlsx
+++ b/Semester_3/Datenanalyse/VisualisierungsProjekt/Vorlage Zeitaufzeichnungen.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{809FA35A-6FDE-5E4B-AC65-856AE34E3ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C9D870B-600B-4D1C-9231-99A13410E816}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{809FA35A-6FDE-5E4B-AC65-856AE34E3ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3305A2AD-EC99-4950-BE02-C31AC250B06D}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{35CA40DD-BBF4-AC4D-AAC1-906A7A003C17}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>Kalenderwoche</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Visualisierungen ausprobieren</t>
+  </si>
+  <si>
+    <t>Daten umrechnen und Projektbericht</t>
   </si>
 </sst>
 </file>
@@ -142,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -156,10 +159,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -483,266 +489,269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B90C3BE-8A88-7D42-B070-D69C069E9397}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="7" max="7" width="23.1484375" customWidth="1"/>
-    <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="13" max="13" width="27" customWidth="1"/>
+    <col min="3" max="3" width="35.44921875" customWidth="1"/>
+    <col min="6" max="6" width="23.1484375" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="12" max="12" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
+    <row r="1" spans="1:12" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A1" s="6"/>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="10" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-    </row>
-    <row r="2" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+    </row>
+    <row r="2" spans="1:12" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="2" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="2" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="12"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" ht="26.05" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="26.05" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A4" s="5">
         <v>48</v>
       </c>
       <c r="B4" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7">
+      <c r="D4" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7">
+      <c r="E4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="7">
         <v>9.375E-2</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="7">
+      <c r="H4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="7">
         <v>9.375E-2</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:13" ht="26.05" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="K4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" ht="26.05" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A5" s="5">
         <v>49</v>
       </c>
       <c r="B5" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7">
+      <c r="D5" s="7">
         <v>0</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7">
+      <c r="E5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="7">
+      <c r="H5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" ht="26.05" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="K5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" ht="26.05" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A6" s="5">
         <v>50</v>
       </c>
       <c r="B6" s="7">
         <v>6.25E-2</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7">
+      <c r="D6" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7">
+      <c r="E6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7">
+      <c r="H6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="L6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
+      <c r="K6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A7" s="5">
         <v>51</v>
       </c>
       <c r="B7" s="7">
         <v>0.11458333333333333</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
+      <c r="D7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A8" s="5">
         <v>52</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
+    <row r="10" spans="1:12" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A10" s="5">
         <v>2</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
+    <row r="11" spans="1:12" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A11" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
+      <c r="B11" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A12" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="25.8" x14ac:dyDescent="0.95">
+      <c r="B12" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A13" s="5">
         <v>5</v>
       </c>
+      <c r="B13" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
+  <mergeCells count="16">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Semester_3/Datenanalyse/VisualisierungsProjekt/Vorlage Zeitaufzeichnungen.xlsx
+++ b/Semester_3/Datenanalyse/VisualisierungsProjekt/Vorlage Zeitaufzeichnungen.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{809FA35A-6FDE-5E4B-AC65-856AE34E3ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3305A2AD-EC99-4950-BE02-C31AC250B06D}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{809FA35A-6FDE-5E4B-AC65-856AE34E3ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF086A25-E26B-4170-9E3B-E074B0A93DA5}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{35CA40DD-BBF4-AC4D-AAC1-906A7A003C17}"/>
+    <workbookView minimized="1" xWindow="1098" yWindow="1098" windowWidth="17280" windowHeight="9984" xr2:uid="{35CA40DD-BBF4-AC4D-AAC1-906A7A003C17}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>Kalenderwoche</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Daten umrechnen und Projektbericht</t>
+  </si>
+  <si>
+    <t>Projektbericht</t>
   </si>
 </sst>
 </file>
@@ -164,12 +167,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -492,7 +495,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -506,25 +509,25 @@
   <sheetData>
     <row r="1" spans="1:12" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A1" s="6"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="12" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A2" s="3" t="s">
@@ -539,24 +542,24 @@
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="13"/>
+      <c r="I2" s="12"/>
       <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="13"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A3" s="4"/>
@@ -575,24 +578,24 @@
       <c r="D4" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="10"/>
+      <c r="E4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="13"/>
       <c r="G4" s="7">
         <v>9.375E-2</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="10"/>
+      <c r="H4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="13"/>
       <c r="J4" s="7">
         <v>9.375E-2</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="10"/>
+      <c r="K4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:12" ht="26.05" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A5" s="5">
@@ -607,24 +610,24 @@
       <c r="D5" s="7">
         <v>0</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="10"/>
+      <c r="E5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="13"/>
       <c r="G5" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="10"/>
+      <c r="H5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="13"/>
       <c r="J5" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="10"/>
+      <c r="K5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" ht="26.05" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A6" s="5">
@@ -639,24 +642,24 @@
       <c r="D6" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="10"/>
+      <c r="E6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="13"/>
       <c r="G6" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="10"/>
+      <c r="H6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="13"/>
       <c r="J6" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="10"/>
+      <c r="K6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A7" s="5">
@@ -732,16 +735,17 @@
       <c r="A13" s="5">
         <v>5</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="G1:I1"/>
@@ -749,9 +753,13 @@
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
